--- a/AgileArtifacts/User Stories Report - Backlog from Taiga.xlsx
+++ b/AgileArtifacts/User Stories Report - Backlog from Taiga.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billie\defender\AgileArtifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpetruccelli\Documents\GSA\Agile Vehicle (out of 18F)\Final Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="userstories (11)" sheetId="1" r:id="rId1"/>
+    <sheet name="userstories" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="213">
   <si>
     <t>ref</t>
   </si>
@@ -33,9 +33,6 @@
     <t>milestone</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>owner_full_name</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>Sprint 0</t>
-  </si>
-  <si>
-    <t>bschwetz-1</t>
   </si>
   <si>
     <t>Billie</t>
@@ -547,6 +541,9 @@
     <t>2015-06-26 04:23:09.451515+00:00</t>
   </si>
   <si>
+    <t>2015-06-29 17:44:08.177096+00:00</t>
+  </si>
+  <si>
     <t>As a user, I would like to see the twitter feed applicable to my keyword.</t>
   </si>
   <si>
@@ -594,12 +591,6 @@
     <t>As a user, I would like to choose an individual recall and have Defender filter all analyses windows to that single recall.</t>
   </si>
   <si>
-    <t>bmcelhaney</t>
-  </si>
-  <si>
-    <t>bill mcelhaney</t>
-  </si>
-  <si>
     <t>2015-06-20 18:34:51.676482+00:00</t>
   </si>
   <si>
@@ -618,6 +609,9 @@
     <t>2015-06-26 04:23:25.300219+00:00</t>
   </si>
   <si>
+    <t>2015-06-29 17:43:38.279861+00:00</t>
+  </si>
+  <si>
     <t>As a user, I would like to view a summary of devices recalls that have occurred in the last 90 days so that I am aware of the latest recalls.</t>
   </si>
   <si>
@@ -625,6 +619,9 @@
   </si>
   <si>
     <t>2015-06-26 04:23:38.473976+00:00</t>
+  </si>
+  <si>
+    <t>2015-06-29 17:45:31.981057+00:00</t>
   </si>
   <si>
     <t>As a user, I would like to see the total number of recalls in the last 90 days.</t>
@@ -801,10 +798,35 @@
     <t>2015-06-24 21:49:13.585123+00:00</t>
   </si>
   <si>
-    <t>2015-06-26 03:55:42.108018+00:00</t>
+    <t>2015-06-29 19:03:36.863601+00:00</t>
   </si>
   <si>
     <t>2015-06-26 03:40:49.095648+00:00</t>
+  </si>
+  <si>
+    <t>As a user, I would like to be able to refine the map and see overlays in a more intuitive way.</t>
+  </si>
+  <si>
+    <t>Something that is a little more intuitive for map display instead of the checkbox below the search.
+Add ability to toggle on and off the location and the affected areas if possible.</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>2015-06-29 16:55:56.455991+00:00</t>
+  </si>
+  <si>
+    <t>2015-06-30 01:03:49.489986+00:00</t>
+  </si>
+  <si>
+    <t>2015-07-02 23:11:44.383086+00:00</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Sunil</t>
   </si>
 </sst>
 </file>
@@ -1288,12 +1310,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1615,736 +1641,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6328125" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7265625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="60.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>4</v>
       </c>
       <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2">
         <v>10000</v>
       </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
       <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
         <v>10000</v>
       </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
       <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>10000</v>
+      </c>
+      <c r="R4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>10000</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>46</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
         <v>47</v>
       </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="AA4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
       <c r="O5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
         <v>10000</v>
       </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
       <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
         <v>53</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
         <v>54</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AA5" t="s">
         <v>55</v>
       </c>
-      <c r="V5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10000</v>
+      </c>
+      <c r="R6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>10000</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>60</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
         <v>61</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>62</v>
       </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>10000</v>
+      </c>
+      <c r="R7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
+      <c r="S7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>10000</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>68</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
         <v>69</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
-      <c r="V7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
         <v>10000</v>
       </c>
+      <c r="R8" t="s">
+        <v>74</v>
+      </c>
       <c r="S8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
         <v>76</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
         <v>77</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AA8" t="s">
         <v>78</v>
       </c>
-      <c r="V8" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>3</v>
       </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
       <c r="O9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9">
         <v>10000</v>
       </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
       <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
         <v>84</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
         <v>85</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AA9" t="s">
         <v>86</v>
       </c>
-      <c r="V9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>89</v>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
         <v>10000</v>
       </c>
+      <c r="R10" t="s">
+        <v>89</v>
+      </c>
       <c r="S10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" t="s">
         <v>91</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>92</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AA10" t="s">
         <v>93</v>
       </c>
-      <c r="V10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
@@ -2354,390 +2327,372 @@
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
         <v>10000</v>
       </c>
+      <c r="R11" t="s">
+        <v>97</v>
+      </c>
       <c r="S11" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
       </c>
-      <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>88</v>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="315" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>10000</v>
+      </c>
+      <c r="R12" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
+      <c r="S12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <v>10000</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>104</v>
       </c>
-      <c r="T12" t="s">
-        <v>105</v>
-      </c>
-      <c r="U12" t="s">
-        <v>106</v>
+      <c r="U12" t="b">
+        <v>1</v>
       </c>
       <c r="V12" t="b">
-        <v>1</v>
-      </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
         <v>1.5716816716916998E+17</v>
       </c>
-      <c r="AB12" t="s">
-        <v>88</v>
+      <c r="AA12" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="345" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>10000</v>
+      </c>
+      <c r="R13" t="s">
         <v>108</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="S13" t="s">
         <v>109</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>10000</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
         <v>110</v>
       </c>
-      <c r="T13" t="s">
+      <c r="AA13" t="s">
         <v>111</v>
       </c>
-      <c r="V13" t="b">
-        <v>1</v>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>114</v>
+      <c r="B14" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <v>7</v>
+        <v>10000</v>
       </c>
       <c r="Q14">
         <v>10000</v>
       </c>
-      <c r="R14">
-        <v>10000</v>
+      <c r="R14" t="s">
+        <v>113</v>
       </c>
       <c r="S14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" t="s">
         <v>115</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
         <v>116</v>
       </c>
-      <c r="U14" t="s">
-        <v>117</v>
-      </c>
-      <c r="V14" t="b">
-        <v>0</v>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>10000</v>
+      </c>
+      <c r="R15" t="s">
         <v>120</v>
       </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="S15" t="s">
         <v>121</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15">
-        <v>10000</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
         <v>122</v>
       </c>
-      <c r="T15" t="s">
-        <v>123</v>
-      </c>
-      <c r="V15" t="b">
-        <v>1</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="405" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10000</v>
+      </c>
+      <c r="R16" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="S16" t="s">
         <v>126</v>
       </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>10000</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>127</v>
       </c>
-      <c r="T16" t="s">
-        <v>128</v>
+      <c r="U16" t="b">
+        <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W16" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
         <v>1.46147149150151E+32</v>
       </c>
-      <c r="AB16" t="s">
-        <v>124</v>
+      <c r="AA16" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>10000</v>
+      </c>
+      <c r="R17" t="s">
         <v>130</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>10000</v>
       </c>
       <c r="S17" t="s">
         <v>131</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
         <v>132</v>
       </c>
-      <c r="V17" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>133</v>
-      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
-        <v>134</v>
+      <c r="B18" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C18" t="e">
         <f>- show map of world
@@ -2747,34 +2702,34 @@
         <v>#NAME?</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>3</v>
       </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
       <c r="O18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
         <v>10000</v>
+      </c>
+      <c r="R18" t="s">
+        <v>134</v>
       </c>
       <c r="S18" t="s">
         <v>135</v>
@@ -2782,31 +2737,28 @@
       <c r="T18" t="s">
         <v>136</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
         <v>137</v>
-      </c>
-      <c r="V18" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" t="b">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
       </c>
       <c r="AA18" t="s">
         <v>138</v>
       </c>
-      <c r="AB18" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>140</v>
+      <c r="B19" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C19" t="e">
         <f>- pick a location on the map and narrow down to the recall list for the ones applicable in
@@ -2814,208 +2766,205 @@
         <v>#NAME?</v>
       </c>
       <c r="E19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>10000</v>
+      </c>
+      <c r="R19" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" t="s">
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
         <v>142</v>
       </c>
-      <c r="I19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>10000</v>
-      </c>
-      <c r="S19" t="s">
-        <v>143</v>
-      </c>
-      <c r="T19" t="s">
-        <v>144</v>
-      </c>
-      <c r="V19" t="b">
-        <v>1</v>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
-        <v>146</v>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
       <c r="O20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <v>3</v>
       </c>
       <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
         <v>10000</v>
       </c>
+      <c r="R20" t="s">
+        <v>144</v>
+      </c>
       <c r="S20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T20" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
       </c>
       <c r="V20" t="b">
         <v>1</v>
       </c>
-      <c r="W20" t="b">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
         <v>1.5215615816116201E+32</v>
       </c>
-      <c r="AB20" t="s">
-        <v>145</v>
+      <c r="AA20" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
-        <v>149</v>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
       <c r="O21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P21">
         <v>4</v>
       </c>
       <c r="Q21">
-        <v>4</v>
-      </c>
-      <c r="R21">
         <v>10000</v>
       </c>
+      <c r="R21" t="s">
+        <v>148</v>
+      </c>
       <c r="S21" t="s">
+        <v>149</v>
+      </c>
+      <c r="T21" t="s">
         <v>150</v>
       </c>
-      <c r="T21" t="s">
-        <v>151</v>
+      <c r="U21" t="b">
+        <v>1</v>
       </c>
       <c r="V21" t="b">
         <v>1</v>
       </c>
-      <c r="W21" t="b">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
         <v>1.5515917617817899E+23</v>
       </c>
-      <c r="AB21" t="s">
-        <v>145</v>
+      <c r="AA21" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10000</v>
+      </c>
+      <c r="R22" t="s">
         <v>153</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>10000</v>
       </c>
       <c r="S22" t="s">
         <v>154</v>
@@ -3023,49 +2972,46 @@
       <c r="T22" t="s">
         <v>155</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1.0710813613813699E+20</v>
+      </c>
+      <c r="AA22" t="s">
         <v>156</v>
       </c>
-      <c r="V22" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>1.0710813613813699E+20</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>157</v>
-      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>104</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -3077,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
         <v>10000</v>
+      </c>
+      <c r="R23" t="s">
+        <v>159</v>
       </c>
       <c r="S23" t="s">
         <v>160</v>
@@ -3088,64 +3034,61 @@
       <c r="T23" t="s">
         <v>161</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>105106110</v>
+      </c>
+      <c r="AA23" t="s">
         <v>162</v>
       </c>
-      <c r="V23" t="b">
-        <v>0</v>
-      </c>
-      <c r="W23" t="b">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>105106110</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>163</v>
-      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="330" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>10000</v>
+      </c>
+      <c r="R24" t="s">
         <v>165</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>10000</v>
       </c>
       <c r="S24" t="s">
         <v>166</v>
@@ -3153,64 +3096,61 @@
       <c r="T24" t="s">
         <v>167</v>
       </c>
-      <c r="U24" t="s">
-        <v>168</v>
+      <c r="U24" t="b">
+        <v>1</v>
       </c>
       <c r="V24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
         <v>144173174175181</v>
       </c>
-      <c r="AB24" t="s">
-        <v>145</v>
+      <c r="AA24" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>112</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>3</v>
       </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
       <c r="O25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P25">
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>7</v>
-      </c>
-      <c r="R25">
         <v>10000</v>
+      </c>
+      <c r="R25" t="s">
+        <v>170</v>
       </c>
       <c r="S25" t="s">
         <v>171</v>
@@ -3218,64 +3158,61 @@
       <c r="T25" t="s">
         <v>172</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>131132130133</v>
+      </c>
+      <c r="AA25" t="s">
         <v>173</v>
       </c>
-      <c r="V25" t="b">
-        <v>1</v>
-      </c>
-      <c r="W25" t="b">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>131132130133</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" t="s">
         <v>175</v>
       </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <v>2</v>
       </c>
       <c r="Q26">
-        <v>2</v>
-      </c>
-      <c r="R26">
         <v>10000</v>
+      </c>
+      <c r="R26" t="s">
+        <v>176</v>
       </c>
       <c r="S26" t="s">
         <v>177</v>
@@ -3283,64 +3220,61 @@
       <c r="T26" t="s">
         <v>178</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>115</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>128129</v>
+      </c>
+      <c r="AA26" t="s">
         <v>179</v>
       </c>
-      <c r="V26" t="b">
-        <v>0</v>
-      </c>
-      <c r="W26" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>115</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>128129</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>180</v>
-      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>119</v>
       </c>
-      <c r="B27" t="s">
-        <v>181</v>
+      <c r="B27" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
       </c>
       <c r="N27">
         <v>0.5</v>
       </c>
       <c r="O27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
         <v>10000</v>
+      </c>
+      <c r="R27" t="s">
+        <v>181</v>
       </c>
       <c r="S27" t="s">
         <v>182</v>
@@ -3348,64 +3282,61 @@
       <c r="T27" t="s">
         <v>183</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>116</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>134135</v>
+      </c>
+      <c r="AA27" t="s">
         <v>184</v>
       </c>
-      <c r="V27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>116</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>134135</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>185</v>
-      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
-        <v>186</v>
+      <c r="B28" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>6</v>
       </c>
       <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="R28">
         <v>10000</v>
+      </c>
+      <c r="R28" t="s">
+        <v>186</v>
       </c>
       <c r="S28" t="s">
         <v>187</v>
@@ -3413,64 +3344,61 @@
       <c r="T28" t="s">
         <v>188</v>
       </c>
-      <c r="U28" t="s">
-        <v>189</v>
+      <c r="U28" t="b">
+        <v>0</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
       </c>
-      <c r="W28" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
         <v>182184183197</v>
       </c>
-      <c r="AB28" t="s">
-        <v>174</v>
+      <c r="AA28" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>188</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
       <c r="O29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>5</v>
       </c>
       <c r="Q29">
-        <v>5</v>
-      </c>
-      <c r="R29">
         <v>10000</v>
+      </c>
+      <c r="R29" t="s">
+        <v>191</v>
       </c>
       <c r="S29" t="s">
         <v>192</v>
@@ -3478,61 +3406,58 @@
       <c r="T29" t="s">
         <v>193</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1.7218519118918998E+20</v>
+      </c>
+      <c r="AA29" t="s">
         <v>194</v>
       </c>
-      <c r="V29" t="b">
-        <v>1</v>
-      </c>
-      <c r="W29" t="b">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>1.7218519118918998E+20</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>195</v>
-      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>211</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
         <v>196</v>
       </c>
-      <c r="D30" t="s">
-        <v>197</v>
-      </c>
       <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
         <v>10000</v>
+      </c>
+      <c r="R30" t="s">
+        <v>197</v>
       </c>
       <c r="S30" t="s">
         <v>198</v>
@@ -3540,51 +3465,48 @@
       <c r="T30" t="s">
         <v>199</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>208</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>225226227228</v>
+      </c>
+      <c r="AA30" t="s">
         <v>200</v>
       </c>
-      <c r="V30" t="b">
-        <v>0</v>
-      </c>
-      <c r="W30" t="b">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>208</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>225226227228</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>201</v>
-      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>212</v>
       </c>
-      <c r="B31" t="s">
-        <v>202</v>
+      <c r="B31" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="N31">
         <v>2</v>
       </c>
       <c r="O31">
@@ -3594,10 +3516,10 @@
         <v>2</v>
       </c>
       <c r="Q31">
-        <v>2</v>
-      </c>
-      <c r="R31">
         <v>10000</v>
+      </c>
+      <c r="R31" t="s">
+        <v>202</v>
       </c>
       <c r="S31" t="s">
         <v>203</v>
@@ -3605,26 +3527,85 @@
       <c r="T31" t="s">
         <v>204</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>207</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>221222223224232</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>236</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="V31" t="b">
-        <v>0</v>
-      </c>
-      <c r="W31" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
+      <c r="C32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
         <v>207</v>
       </c>
-      <c r="AA31" s="2">
-        <v>221222223224232</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>201</v>
+      <c r="E32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>10000</v>
+      </c>
+      <c r="R32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S32" t="s">
+        <v>209</v>
+      </c>
+      <c r="T32" t="s">
+        <v>210</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>2.3823723924123999E+20</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
